--- a/strategies.xlsx
+++ b/strategies.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/basant/Work/PNL/forte/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF457855-EC37-AF45-8B20-B90C5E7D06CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55FB9F32-7312-F74F-81D7-B2FF94E2C47E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{AFF2D45B-B8EF-4640-A38B-FCC93FEE78A9}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{AFF2D45B-B8EF-4640-A38B-FCC93FEE78A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="68">
   <si>
     <t>Pattern</t>
   </si>
@@ -208,13 +209,46 @@
   </si>
   <si>
     <t>Contract</t>
+  </si>
+  <si>
+    <t>TICK_PRICE</t>
+  </si>
+  <si>
+    <t>NIFTY</t>
+  </si>
+  <si>
+    <t>OPTION_MARKET</t>
+  </si>
+  <si>
+    <t>CANDLE_1</t>
+  </si>
+  <si>
+    <t>CDLDOJI_BUY</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>TIME_SIGNAL</t>
+  </si>
+  <si>
+    <t>THURSDAY_09_26</t>
+  </si>
+  <si>
+    <t>GLOBAL</t>
+  </si>
+  <si>
+    <t>PRICE_ACTION_INTRA</t>
+  </si>
+  <si>
+    <t>INDICATOR_DT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -233,6 +267,12 @@
       <color rgb="FF6A8759"/>
       <name val="JetBrains Mono"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -255,10 +295,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,7 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{109DBAA2-FE49-9E4F-9BD6-6786A3A35D5A}">
   <dimension ref="D1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -961,6 +1003,95 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D3E4E7-B3D0-9647-A791-284878D5B695}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E8C0F9-0FC9-DB43-9A9F-DA01BCEFF999}">
   <dimension ref="A1"/>
   <sheetViews>
